--- a/汽柴煤油2.0/data_input/柴油出口利润(华东-新加坡).xlsx
+++ b/汽柴煤油2.0/data_input/柴油出口利润(华东-新加坡).xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5749"/>
+  <dimension ref="A1:E5751"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85759,10 +85759,38 @@
         <v>487.4163</v>
       </c>
       <c r="C5749" t="n">
-        <v>10.2593</v>
-      </c>
-      <c r="D5749" t="inlineStr"/>
+        <v>10.0824</v>
+      </c>
+      <c r="D5749" t="n">
+        <v>-21.6</v>
+      </c>
       <c r="E5749" t="inlineStr"/>
+    </row>
+    <row r="5750">
+      <c r="A5750" s="2" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B5750" t="n">
+        <v>521.8835</v>
+      </c>
+      <c r="C5750" t="n">
+        <v>12.6972</v>
+      </c>
+      <c r="D5750" t="n">
+        <v>-19.4</v>
+      </c>
+      <c r="E5750" t="inlineStr"/>
+    </row>
+    <row r="5751">
+      <c r="A5751" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B5751" t="inlineStr"/>
+      <c r="C5751" t="n">
+        <v>13.3028</v>
+      </c>
+      <c r="D5751" t="inlineStr"/>
+      <c r="E5751" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
